--- a/reaction maps/PanZ sortase time course 1.5 eq gvseyg obf.xlsx
+++ b/reaction maps/PanZ sortase time course 1.5 eq gvseyg obf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Experiment Title:</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>PanZ</t>
-  </si>
-  <si>
-    <t>Species 3</t>
-  </si>
-  <si>
-    <t>Species 4</t>
   </si>
   <si>
     <t>Unlabelled</t>
@@ -1008,7 +1002,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1048,16 +1042,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>16223</v>
+        <v>15623</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1068,48 +1059,24 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>15623</v>
+        <v>16223</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15029</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15459</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
